--- a/data/trans_orig/P64DS1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P64DS1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE369A38-3D53-4FA0-AB76-C9AD668CD771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3716B1B9-4225-4DB1-ABC8-F7C10AAF924E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EEC3FD69-DD4E-42FE-89DB-1E11D9C996E1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{351D3E9C-7D5F-4C82-917B-BF6F7E5A9F45}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="397">
   <si>
     <t>Población según el método de desplazamiento que utiliza para ir al trabajo / respuesta 1 en 2023 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -77,1165 +77,1153 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,62%</t>
+    <t>9,54%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>En otros medios</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>En transporte público (autobús, metro, tren)</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>En vehículo particular (automóvil, moto)</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>En bicicleta</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>Andando</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>En otros medios</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>En transporte público (autobús, metro, tren)</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>En vehículo particular (automóvil, moto)</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>En bicicleta</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>Andando</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>2,18%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
   </si>
   <si>
     <t>28,56%</t>
   </si>
   <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1650,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B3FE04-C849-4229-B581-64503834DDE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4F5E43-923F-4317-81D7-88AAAA634B79}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1828,10 +1816,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1843,10 +1831,10 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1855,19 +1843,19 @@
         <v>856</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -1876,13 +1864,13 @@
         <v>4593</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -1891,13 +1879,13 @@
         <v>850</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -1906,19 +1894,19 @@
         <v>5443</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>157</v>
@@ -1927,13 +1915,13 @@
         <v>124567</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>180</v>
@@ -1942,34 +1930,34 @@
         <v>93762</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>337</v>
       </c>
       <c r="N7" s="7">
-        <v>218329</v>
+        <v>218330</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -1978,13 +1966,13 @@
         <v>2055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1996,10 +1984,10 @@
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2008,19 +1996,19 @@
         <v>2055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7">
         <v>31</v>
@@ -2029,13 +2017,13 @@
         <v>26092</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>68</v>
@@ -2044,13 +2032,13 @@
         <v>36675</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" s="7">
         <v>99</v>
@@ -2059,13 +2047,13 @@
         <v>62767</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2068,13 @@
         <v>161197</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>257</v>
@@ -2095,33 +2083,33 @@
         <v>134890</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>457</v>
       </c>
       <c r="N10" s="7">
-        <v>296086</v>
+        <v>296087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2133,13 +2121,13 @@
         <v>1404</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2148,10 +2136,10 @@
         <v>1793</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>70</v>
@@ -2166,7 +2154,7 @@
         <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>72</v>
@@ -2202,7 +2190,7 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>75</v>
@@ -2226,7 +2214,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7">
         <v>4</v>
@@ -2277,7 +2265,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7">
         <v>127</v>
@@ -2328,7 +2316,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2355,10 +2343,10 @@
         <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -2367,19 +2355,19 @@
         <v>1291</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="7">
         <v>37</v>
@@ -2388,13 +2376,13 @@
         <v>49495</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -2403,13 +2391,13 @@
         <v>51684</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -2418,13 +2406,13 @@
         <v>101179</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2427,13 @@
         <v>246093</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>211</v>
@@ -2454,13 +2442,13 @@
         <v>177302</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>382</v>
@@ -2469,18 +2457,18 @@
         <v>423396</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2492,13 +2480,13 @@
         <v>2173</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2507,13 +2495,13 @@
         <v>1274</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2522,13 +2510,13 @@
         <v>3447</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2531,13 @@
         <v>1994</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2561,10 +2549,10 @@
         <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2573,19 +2561,19 @@
         <v>1994</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2597,10 +2585,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2609,13 +2597,13 @@
         <v>5715</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2624,19 +2612,19 @@
         <v>5714</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7">
         <v>105</v>
@@ -2645,13 +2633,13 @@
         <v>106708</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -2660,13 +2648,13 @@
         <v>66566</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>190</v>
@@ -2675,19 +2663,19 @@
         <v>173274</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7">
         <v>3</v>
@@ -2696,13 +2684,13 @@
         <v>2707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2711,13 +2699,13 @@
         <v>1634</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2726,19 +2714,19 @@
         <v>4342</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7">
         <v>39</v>
@@ -2747,13 +2735,13 @@
         <v>37581</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>72</v>
@@ -2762,13 +2750,13 @@
         <v>53204</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>111</v>
@@ -2777,13 +2765,13 @@
         <v>90785</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2786,13 @@
         <v>151163</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H24" s="7">
         <v>169</v>
@@ -2813,13 +2801,13 @@
         <v>128393</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M24" s="7">
         <v>321</v>
@@ -2828,18 +2816,18 @@
         <v>279556</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2851,13 +2839,13 @@
         <v>16482</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -2866,13 +2854,13 @@
         <v>5979</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -2881,13 +2869,13 @@
         <v>22461</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,10 +2893,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2920,10 +2908,10 @@
         <v>12</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2935,16 +2923,16 @@
         <v>12</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
@@ -2953,13 +2941,13 @@
         <v>1872</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -2968,13 +2956,13 @@
         <v>10948</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
@@ -2983,19 +2971,19 @@
         <v>12820</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7">
         <v>74</v>
@@ -3004,13 +2992,13 @@
         <v>114924</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>104</v>
@@ -3019,13 +3007,13 @@
         <v>104702</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M28" s="7">
         <v>178</v>
@@ -3034,19 +3022,19 @@
         <v>219626</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
         <v>5</v>
@@ -3055,13 +3043,13 @@
         <v>2640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3070,13 +3058,13 @@
         <v>16032</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -3085,19 +3073,19 @@
         <v>18672</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="7">
         <v>32</v>
@@ -3106,13 +3094,13 @@
         <v>37362</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H30" s="7">
         <v>74</v>
@@ -3121,13 +3109,13 @@
         <v>57860</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
         <v>106</v>
@@ -3136,13 +3124,13 @@
         <v>95222</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3145,13 @@
         <v>173281</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H31" s="7">
         <v>203</v>
@@ -3172,13 +3160,13 @@
         <v>195521</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M31" s="7">
         <v>328</v>
@@ -3187,18 +3175,18 @@
         <v>368802</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3210,13 +3198,13 @@
         <v>2471</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -3225,13 +3213,13 @@
         <v>2966</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -3240,13 +3228,13 @@
         <v>5436</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,10 +3252,10 @@
         <v>12</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3279,10 +3267,10 @@
         <v>12</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -3294,16 +3282,16 @@
         <v>12</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="7">
         <v>6</v>
@@ -3312,13 +3300,13 @@
         <v>2667</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -3327,13 +3315,13 @@
         <v>929</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -3342,19 +3330,19 @@
         <v>3596</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7">
         <v>87</v>
@@ -3363,13 +3351,13 @@
         <v>64145</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H35" s="7">
         <v>88</v>
@@ -3378,13 +3366,13 @@
         <v>46238</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M35" s="7">
         <v>175</v>
@@ -3393,19 +3381,19 @@
         <v>110382</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -3414,13 +3402,13 @@
         <v>758</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3429,13 +3417,13 @@
         <v>159</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3444,19 +3432,19 @@
         <v>917</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7">
         <v>74</v>
@@ -3465,13 +3453,13 @@
         <v>54986</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H37" s="7">
         <v>142</v>
@@ -3480,13 +3468,13 @@
         <v>67990</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M37" s="7">
         <v>216</v>
@@ -3495,13 +3483,13 @@
         <v>122976</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3504,13 @@
         <v>125027</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H38" s="7">
         <v>240</v>
@@ -3531,13 +3519,13 @@
         <v>118281</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M38" s="7">
         <v>411</v>
@@ -3546,18 +3534,18 @@
         <v>243308</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3572,10 +3560,10 @@
         <v>12</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3587,10 +3575,10 @@
         <v>12</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3602,10 +3590,10 @@
         <v>12</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3608,13 @@
         <v>3289</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3638,10 +3626,10 @@
         <v>12</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -3650,19 +3638,19 @@
         <v>3289</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -3674,10 +3662,10 @@
         <v>12</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3689,10 +3677,10 @@
         <v>12</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3704,16 +3692,16 @@
         <v>12</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" s="7">
         <v>104</v>
@@ -3722,13 +3710,13 @@
         <v>94109</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H42" s="7">
         <v>54</v>
@@ -3737,13 +3725,13 @@
         <v>42937</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M42" s="7">
         <v>158</v>
@@ -3752,19 +3740,19 @@
         <v>137046</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="7">
         <v>2</v>
@@ -3773,13 +3761,13 @@
         <v>1793</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3791,10 +3779,10 @@
         <v>12</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3803,19 +3791,19 @@
         <v>1793</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="7">
         <v>46</v>
@@ -3824,13 +3812,13 @@
         <v>39479</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H44" s="7">
         <v>75</v>
@@ -3839,13 +3827,13 @@
         <v>50008</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M44" s="7">
         <v>121</v>
@@ -3854,13 +3842,13 @@
         <v>89487</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3863,13 @@
         <v>138669</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H45" s="7">
         <v>129</v>
@@ -3890,13 +3878,13 @@
         <v>92945</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M45" s="7">
         <v>284</v>
@@ -3905,18 +3893,18 @@
         <v>231614</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3928,13 +3916,13 @@
         <v>22403</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H46" s="7">
         <v>28</v>
@@ -3943,13 +3931,13 @@
         <v>20566</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M46" s="7">
         <v>53</v>
@@ -3958,13 +3946,13 @@
         <v>42970</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3967,13 @@
         <v>1006</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -3994,13 +3982,13 @@
         <v>4629</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="M47" s="7">
         <v>7</v>
@@ -4009,19 +3997,19 @@
         <v>5635</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48" s="7">
         <v>11</v>
@@ -4030,13 +4018,13 @@
         <v>8399</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>123</v>
+        <v>280</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H48" s="7">
         <v>24</v>
@@ -4045,13 +4033,13 @@
         <v>18760</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M48" s="7">
         <v>35</v>
@@ -4060,19 +4048,19 @@
         <v>27160</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" s="7">
         <v>240</v>
@@ -4081,13 +4069,13 @@
         <v>265102</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H49" s="7">
         <v>276</v>
@@ -4096,13 +4084,13 @@
         <v>203906</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M49" s="7">
         <v>516</v>
@@ -4111,19 +4099,19 @@
         <v>469008</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C50" s="7">
         <v>5</v>
@@ -4132,13 +4120,13 @@
         <v>5842</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -4150,10 +4138,10 @@
         <v>76</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="M50" s="7">
         <v>9</v>
@@ -4162,19 +4150,19 @@
         <v>6999</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="7">
         <v>32</v>
@@ -4183,13 +4171,13 @@
         <v>33021</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H51" s="7">
         <v>111</v>
@@ -4198,13 +4186,13 @@
         <v>77954</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M51" s="7">
         <v>143</v>
@@ -4213,13 +4201,13 @@
         <v>110975</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4222,13 @@
         <v>335774</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H52" s="7">
         <v>449</v>
@@ -4249,13 +4237,13 @@
         <v>326972</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M52" s="7">
         <v>763</v>
@@ -4264,18 +4252,18 @@
         <v>662746</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4287,13 +4275,13 @@
         <v>26424</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>311</v>
+        <v>86</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>22</v>
+        <v>309</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H53" s="7">
         <v>26</v>
@@ -4302,13 +4290,13 @@
         <v>19554</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M53" s="7">
         <v>49</v>
@@ -4317,13 +4305,13 @@
         <v>45978</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>145</v>
+        <v>315</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>317</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4326,13 @@
         <v>1519</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -4353,13 +4341,13 @@
         <v>159</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>101</v>
+        <v>318</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -4368,19 +4356,19 @@
         <v>1678</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P54" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="Q54" s="7" t="s">
-        <v>322</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55" s="7">
         <v>23</v>
@@ -4389,13 +4377,13 @@
         <v>28672</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H55" s="7">
         <v>37</v>
@@ -4404,13 +4392,13 @@
         <v>29712</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M55" s="7">
         <v>60</v>
@@ -4419,19 +4407,19 @@
         <v>58384</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" s="7">
         <v>220</v>
@@ -4440,13 +4428,13 @@
         <v>310483</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H56" s="7">
         <v>138</v>
@@ -4455,13 +4443,13 @@
         <v>121763</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M56" s="7">
         <v>358</v>
@@ -4470,19 +4458,19 @@
         <v>432246</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C57" s="7">
         <v>7</v>
@@ -4491,13 +4479,13 @@
         <v>9860</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H57" s="7">
         <v>7</v>
@@ -4506,13 +4494,13 @@
         <v>4749</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M57" s="7">
         <v>14</v>
@@ -4521,19 +4509,19 @@
         <v>14609</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="Q57" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" s="7">
         <v>110</v>
@@ -4542,13 +4530,13 @@
         <v>129133</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H58" s="7">
         <v>166</v>
@@ -4557,13 +4545,13 @@
         <v>151012</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M58" s="7">
         <v>276</v>
@@ -4572,13 +4560,13 @@
         <v>280146</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4581,13 @@
         <v>506091</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H59" s="7">
         <v>375</v>
@@ -4608,13 +4596,13 @@
         <v>326949</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M59" s="7">
         <v>760</v>
@@ -4623,13 +4611,13 @@
         <v>833040</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4634,13 @@
         <v>74390</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H60" s="7">
         <v>81</v>
@@ -4661,13 +4649,13 @@
         <v>55735</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M60" s="7">
         <v>148</v>
@@ -4676,13 +4664,13 @@
         <v>130125</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q60" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4685,13 @@
         <v>10126</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>25</v>
+        <v>362</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="H61" s="7">
         <v>7</v>
@@ -4712,13 +4700,13 @@
         <v>4788</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>364</v>
+        <v>36</v>
       </c>
       <c r="M61" s="7">
         <v>19</v>
@@ -4727,19 +4715,19 @@
         <v>14914</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>366</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62" s="7">
         <v>51</v>
@@ -4748,13 +4736,13 @@
         <v>51782</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H62" s="7">
         <v>91</v>
@@ -4763,13 +4751,13 @@
         <v>72255</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>16</v>
+        <v>367</v>
       </c>
       <c r="M62" s="7">
         <v>142</v>
@@ -4778,19 +4766,19 @@
         <v>124036</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63" s="7">
         <v>1114</v>
@@ -4799,13 +4787,13 @@
         <v>1268033</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H63" s="7">
         <v>1056</v>
@@ -4814,13 +4802,13 @@
         <v>797226</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M63" s="7">
         <v>2170</v>
@@ -4829,19 +4817,19 @@
         <v>2065259</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C64" s="7">
         <v>28</v>
@@ -4850,13 +4838,13 @@
         <v>25815</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>162</v>
+        <v>380</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>384</v>
+        <v>165</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H64" s="7">
         <v>20</v>
@@ -4865,13 +4853,13 @@
         <v>24863</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M64" s="7">
         <v>48</v>
@@ -4880,19 +4868,19 @@
         <v>50678</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65" s="7">
         <v>401</v>
@@ -4901,13 +4889,13 @@
         <v>407149</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H65" s="7">
         <v>778</v>
@@ -4916,13 +4904,13 @@
         <v>546386</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M65" s="7">
         <v>1179</v>
@@ -4931,13 +4919,13 @@
         <v>953535</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4940,13 @@
         <v>1837295</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H66" s="7">
         <v>2033</v>
@@ -4967,13 +4955,13 @@
         <v>1501253</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M66" s="7">
         <v>3706</v>
@@ -4982,18 +4970,18 @@
         <v>3338548</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P64DS1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P64DS1_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3716B1B9-4225-4DB1-ABC8-F7C10AAF924E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01DF8520-450D-4812-B54D-677017D98D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{351D3E9C-7D5F-4C82-917B-BF6F7E5A9F45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AFB2287F-8D7B-455D-A5AD-817E63046CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1638,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4F5E43-923F-4317-81D7-88AAAA634B79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88915177-C1E0-48B4-A5F4-B19C78D93038}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
